--- a/OracionesGuarani_train.xlsx
+++ b/OracionesGuarani_train.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DOCUMENTOS VARIOS\DOCUMENTOS\MAESTRIA DATA SCIENCE 2024\TESIS 2025\Idioma Guaraní\Revisión del dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0F826B-E07E-43F8-8430-8C6C752AFDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C122F4B3-AEB0-4574-A4C7-5ECFEBD28CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="432">
   <si>
     <t>ID</t>
   </si>
@@ -982,42 +982,21 @@
     <t>ID131</t>
   </si>
   <si>
-    <t>Ha'e nombotujáimi che ogyke-Ha'e nombyaírimi che ogyke</t>
-  </si>
-  <si>
-    <t>Ha'e ombotujámi che ogyke-Ha'e ombyaími che ogyke</t>
-  </si>
-  <si>
     <t>ID132</t>
   </si>
   <si>
-    <t>Ha'e nombotujáikuri che ogyke-Ha'e ombyaíkuri che ogyke</t>
-  </si>
-  <si>
     <t>ID133</t>
   </si>
   <si>
-    <t>Nde nerembotujáimi che ogyke-Nde rembyaírimi che ogyke</t>
-  </si>
-  <si>
     <t>ID134</t>
   </si>
   <si>
-    <t>Ñande nañambotujáimi che ogyke-Ñande nañambyaírimi che ogyke</t>
-  </si>
-  <si>
     <t>ID135</t>
   </si>
   <si>
-    <t>Ha'e nombotujamo'ãi che ogyke-Ha'e nombyaimo'ãi che ogyke</t>
-  </si>
-  <si>
     <t>ID136</t>
   </si>
   <si>
-    <t>Ha'e nombotujáiva'ekue che ogyke-Ha'e nombyaíriva'ekue che ogyke</t>
-  </si>
-  <si>
     <t>ID137</t>
   </si>
   <si>
@@ -1027,9 +1006,6 @@
     <t>Primera persona del singular (yo) y Tiempo futuro simple (partícula -ta)</t>
   </si>
   <si>
-    <t>Che nombotujamo'ãi che ogyke-Che nambyaímo'ãi che ogyke</t>
-  </si>
-  <si>
     <t>ID138</t>
   </si>
   <si>
@@ -1313,6 +1289,33 @@
   </si>
   <si>
     <t>Target</t>
+  </si>
+  <si>
+    <t>Ha'e nombotujúimi che ogyke-Ha'e nombyaírimi che ogyke</t>
+  </si>
+  <si>
+    <t>Ha'e ombotujúmi che ogyke-Ha'e ombyaími che ogyke</t>
+  </si>
+  <si>
+    <t>Ha'e nombotujúikuri che ogyke-Ha'e nombyaírikuri che ogyke</t>
+  </si>
+  <si>
+    <t>Nde nerembotujúimi che ogyke-Nde rembyaírimi che ogyke</t>
+  </si>
+  <si>
+    <t>Ha'e nombotujámi che ogyke-Ha'e nombyaírimi che ogyke</t>
+  </si>
+  <si>
+    <t>Ñande nañambotujúimi che ogyke-Ñande nañambyaírimi che ogyke</t>
+  </si>
+  <si>
+    <t>Ha'e nombotujumo'ãi che ogyke-Ha'e nombyaimo'ãi che ogyke</t>
+  </si>
+  <si>
+    <t>Ha'e nombotujúiva'ekue che ogyke-Ha'e nombyaíriva'ekue che ogyke</t>
+  </si>
+  <si>
+    <t>Che nambotujumo'ãi che ogyke-Che nambyaímo'ãi che ogyke</t>
   </si>
 </sst>
 </file>
@@ -1626,8 +1629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBECE357-8949-4625-B74E-0DE4F92920CC}">
   <dimension ref="A1:E179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="G128" sqref="G128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1644,16 +1647,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="C1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2891,7 +2894,7 @@
         <v>187</v>
       </c>
       <c r="D74" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="E74" t="s">
         <v>188</v>
@@ -2908,7 +2911,7 @@
         <v>190</v>
       </c>
       <c r="D75" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="E75" t="s">
         <v>191</v>
@@ -3520,7 +3523,7 @@
         <v>187</v>
       </c>
       <c r="D111" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="E111" t="s">
         <v>272</v>
@@ -3537,7 +3540,7 @@
         <v>190</v>
       </c>
       <c r="D112" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="E112" t="s">
         <v>274</v>
@@ -3871,7 +3874,7 @@
         <v>319</v>
       </c>
       <c r="B132" t="s">
-        <v>320</v>
+        <v>423</v>
       </c>
       <c r="C132" t="s">
         <v>52</v>
@@ -3880,15 +3883,15 @@
         <v>53</v>
       </c>
       <c r="E132" t="s">
-        <v>321</v>
+        <v>424</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B133" t="s">
-        <v>320</v>
+        <v>423</v>
       </c>
       <c r="C133" t="s">
         <v>46</v>
@@ -3897,15 +3900,15 @@
         <v>47</v>
       </c>
       <c r="E133" t="s">
-        <v>323</v>
+        <v>425</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B134" t="s">
-        <v>320</v>
+        <v>423</v>
       </c>
       <c r="C134" t="s">
         <v>3</v>
@@ -3914,15 +3917,15 @@
         <v>4</v>
       </c>
       <c r="E134" t="s">
-        <v>325</v>
+        <v>426</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B135" t="s">
-        <v>320</v>
+        <v>427</v>
       </c>
       <c r="C135" t="s">
         <v>37</v>
@@ -3931,15 +3934,15 @@
         <v>38</v>
       </c>
       <c r="E135" t="s">
-        <v>327</v>
+        <v>428</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B136" t="s">
-        <v>320</v>
+        <v>423</v>
       </c>
       <c r="C136" t="s">
         <v>25</v>
@@ -3948,15 +3951,15 @@
         <v>26</v>
       </c>
       <c r="E136" t="s">
-        <v>329</v>
+        <v>429</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B137" t="s">
-        <v>320</v>
+        <v>423</v>
       </c>
       <c r="C137" t="s">
         <v>29</v>
@@ -3965,32 +3968,32 @@
         <v>30</v>
       </c>
       <c r="E137" t="s">
-        <v>331</v>
+        <v>430</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B138" t="s">
-        <v>320</v>
+        <v>423</v>
       </c>
       <c r="C138" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D138" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="E138" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B139" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C139" t="s">
         <v>3</v>
@@ -3999,15 +4002,15 @@
         <v>4</v>
       </c>
       <c r="E139" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B140" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C140" t="s">
         <v>8</v>
@@ -4016,15 +4019,15 @@
         <v>9</v>
       </c>
       <c r="E140" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B141" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C141" t="s">
         <v>33</v>
@@ -4033,15 +4036,15 @@
         <v>34</v>
       </c>
       <c r="E141" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B142" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C142" t="s">
         <v>111</v>
@@ -4050,15 +4053,15 @@
         <v>112</v>
       </c>
       <c r="E142" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B143" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C143" t="s">
         <v>37</v>
@@ -4067,15 +4070,15 @@
         <v>38</v>
       </c>
       <c r="E143" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B144" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C144" t="s">
         <v>8</v>
@@ -4084,15 +4087,15 @@
         <v>9</v>
       </c>
       <c r="E144" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B145" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C145" t="s">
         <v>3</v>
@@ -4101,15 +4104,15 @@
         <v>4</v>
       </c>
       <c r="E145" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B146" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C146" t="s">
         <v>25</v>
@@ -4118,15 +4121,15 @@
         <v>26</v>
       </c>
       <c r="E146" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B147" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C147" t="s">
         <v>8</v>
@@ -4135,15 +4138,15 @@
         <v>9</v>
       </c>
       <c r="E147" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B148" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C148" t="s">
         <v>3</v>
@@ -4152,15 +4155,15 @@
         <v>4</v>
       </c>
       <c r="E148" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B149" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C149" t="s">
         <v>132</v>
@@ -4169,15 +4172,15 @@
         <v>133</v>
       </c>
       <c r="E149" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B150" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C150" t="s">
         <v>25</v>
@@ -4186,15 +4189,15 @@
         <v>26</v>
       </c>
       <c r="E150" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B151" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C151" t="s">
         <v>33</v>
@@ -4203,15 +4206,15 @@
         <v>34</v>
       </c>
       <c r="E151" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B152" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="C152" t="s">
         <v>33</v>
@@ -4220,15 +4223,15 @@
         <v>34</v>
       </c>
       <c r="E152" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B153" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="C153" t="s">
         <v>25</v>
@@ -4237,15 +4240,15 @@
         <v>26</v>
       </c>
       <c r="E153" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B154" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="C154" t="s">
         <v>29</v>
@@ -4254,15 +4257,15 @@
         <v>30</v>
       </c>
       <c r="E154" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B155" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="C155" t="s">
         <v>3</v>
@@ -4271,15 +4274,15 @@
         <v>4</v>
       </c>
       <c r="E155" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B156" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="C156" t="s">
         <v>37</v>
@@ -4288,15 +4291,15 @@
         <v>38</v>
       </c>
       <c r="E156" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B157" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C157" t="s">
         <v>46</v>
@@ -4305,15 +4308,15 @@
         <v>47</v>
       </c>
       <c r="E157" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B158" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C158" t="s">
         <v>25</v>
@@ -4322,15 +4325,15 @@
         <v>26</v>
       </c>
       <c r="E158" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B159" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C159" t="s">
         <v>37</v>
@@ -4339,15 +4342,15 @@
         <v>38</v>
       </c>
       <c r="E159" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B160" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C160" t="s">
         <v>111</v>
@@ -4356,15 +4359,15 @@
         <v>112</v>
       </c>
       <c r="E160" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B161" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C161" t="s">
         <v>8</v>
@@ -4373,15 +4376,15 @@
         <v>9</v>
       </c>
       <c r="E161" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B162" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C162" t="s">
         <v>52</v>
@@ -4390,15 +4393,15 @@
         <v>53</v>
       </c>
       <c r="E162" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B163" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C163" t="s">
         <v>312</v>
@@ -4407,15 +4410,15 @@
         <v>313</v>
       </c>
       <c r="E163" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B164" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C164" t="s">
         <v>37</v>
@@ -4424,15 +4427,15 @@
         <v>38</v>
       </c>
       <c r="E164" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B165" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C165" t="s">
         <v>56</v>
@@ -4441,15 +4444,15 @@
         <v>57</v>
       </c>
       <c r="E165" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="B166" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C166" t="s">
         <v>33</v>
@@ -4458,15 +4461,15 @@
         <v>34</v>
       </c>
       <c r="E166" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="B167" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C167" t="s">
         <v>56</v>
@@ -4475,15 +4478,15 @@
         <v>57</v>
       </c>
       <c r="E167" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="B168" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C168" t="s">
         <v>8</v>
@@ -4492,15 +4495,15 @@
         <v>9</v>
       </c>
       <c r="E168" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="B169" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C169" t="s">
         <v>25</v>
@@ -4509,15 +4512,15 @@
         <v>26</v>
       </c>
       <c r="E169" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="B170" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C170" t="s">
         <v>29</v>
@@ -4526,15 +4529,15 @@
         <v>30</v>
       </c>
       <c r="E170" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="B171" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C171" t="s">
         <v>46</v>
@@ -4543,15 +4546,15 @@
         <v>47</v>
       </c>
       <c r="E171" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B172" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C172" t="s">
         <v>29</v>
@@ -4560,15 +4563,15 @@
         <v>30</v>
       </c>
       <c r="E172" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B173" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C173" t="s">
         <v>8</v>
@@ -4577,15 +4580,15 @@
         <v>9</v>
       </c>
       <c r="E173" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B174" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C174" t="s">
         <v>12</v>
@@ -4594,15 +4597,15 @@
         <v>13</v>
       </c>
       <c r="E174" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B175" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C175" t="s">
         <v>3</v>
@@ -4611,15 +4614,15 @@
         <v>4</v>
       </c>
       <c r="E175" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="B176" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C176" t="s">
         <v>21</v>
@@ -4628,15 +4631,15 @@
         <v>22</v>
       </c>
       <c r="E176" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="B177" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C177" t="s">
         <v>37</v>
@@ -4645,15 +4648,15 @@
         <v>38</v>
       </c>
       <c r="E177" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B178" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C178" t="s">
         <v>42</v>
@@ -4662,15 +4665,15 @@
         <v>43</v>
       </c>
       <c r="E178" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B179" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C179" t="s">
         <v>132</v>
@@ -4679,7 +4682,7 @@
         <v>133</v>
       </c>
       <c r="E179" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
